--- a/docs/mcode/onco-core-TNMClinicalRegionalNodesCategory.xlsx
+++ b/docs/mcode/onco-core-TNMClinicalRegionalNodesCategory.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -204,13 +204,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -223,7 +356,7 @@
     <t>Observation.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -252,7 +385,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -279,7 +412,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -298,38 +431,47 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>proceduralobservationbasedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ProceduralObservationBasedOn-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
+  </si>
+  <si>
+    <t>proceduralobservationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ProceduralObservationPartOf-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>primarycancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-PrimaryCancerCondition-extension]]} {[]}
+    <t>The larger procedure that this particular observation is a component or step.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation-extension}
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationDerivedFrom-extension}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -341,10 +483,72 @@
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FocalSubject-extension}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.id</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FocalSubject-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
+</t>
+  </si>
+  <si>
+    <t>PrimaryCancerCondition: Records the history of the primary cancer condition, the original or first tumor in the body (reference https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor)</t>
+  </si>
+  <si>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (reference https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor). Cancers that are not clearly secondary (i.e., of uncertain origin or behavior) should be documented as primary.
+Cancer staging information summarized in this profile should reflect the most recent staging assessment on the patient, and should be updated if and when there is a new staging assessment. Past staging assessments will be preserved in instances of the TNMClinicalStageGroup and/or TNMPathologicalStageGroup, which refer back to PrimaryCancerCondition.
+Conformance note: For the code attribute, to be compliant with [US Core Profiles](http://hl7.org/fhir/us/core/STU3/index.html), SNOMED CT must be used unless there is no suitable code, in which case ICD-10-CM can be used.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Observation.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -393,7 +597,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -406,9 +610,6 @@
     <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -433,9 +634,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
@@ -454,26 +652,10 @@
     <t>Observation.code.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.code.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -525,7 +707,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>C*E.3</t>
@@ -537,7 +719,7 @@
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -568,7 +750,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="21906-3"/&gt;</t>
+    <t>21906-3</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -598,7 +780,7 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -644,14 +826,14 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>Who and/or what this is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device whose characteristics (direct or indirect) are described by the observation and into whose record the observation is placed.  Comments: Indirect characteristics may be those of a specimen, fetus, donor,  other observer (for example a relative or EMT), or any observation made about the subject.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.@@ -674,7 +856,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -699,8 +881,8 @@
     <t>Observation.effective[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -727,35 +909,31 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date/Time this was made available</t>
+  </si>
+  <si>
+    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>Updated when the result is updated.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>Date/Time this was made available</t>
-  </si>
-  <si>
-    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>Updated when the result is updated.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
-</t>
-  </si>
-  <si>
     <t>Who is responsible for the observation</t>
   </si>
   <si>
@@ -783,15 +961,30 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
+    <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. This element has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueString, valueRange, valueRatio, valueSampledData, valueAttachment, valueTime, valueDateTime, or valuePeriod. (The name format is "'value' + the type name" with a capital on the first letter of the type).+++If the data element is usually coded or if the type associated with the Observation.value defines a coded value, use CodeableConcept instead of string datatype even if the value is uncoded text.  A value set is bound to the ValueCodeableConcept element.  For boolean values use valueCodeableConcept and select codes from [HL7 Version 2 Table 0136](v2/0136/index.html). These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed.   For further discussion and examples see the  [notes section](observation.html#4.20.4) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it may not if it is in error, or it represents a group of observations.</t>
+  </si>
+  <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/TNMRegionalNodesCategoryVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-TNMRegionalNodesCategoryVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -807,7 +1000,10 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>Codes specifying why the result (Observation.value[x]) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-valueabsentreason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -878,7 +1074,10 @@
     <t>Knowing where the observation is made is important for tracking if multiple sites are possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -890,10 +1089,10 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
+    <t>Method or staging system used to stage the cancer</t>
+  </si>
+  <si>
+    <t>Method or staging system used to stage the cancer.</t>
   </si>
   <si>
     <t>Only used if not implicit in code for Observation.code.</t>
@@ -902,7 +1101,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerStagingSystemVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-CancerStagingSystemVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -914,7 +1113,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -936,7 +1135,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device)
 </t>
   </si>
   <si>
@@ -958,7 +1157,7 @@
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1003,7 +1202,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1062,7 +1261,7 @@
     <t>Observation.referenceRange.age</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {[]} {[]}
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
@@ -1135,7 +1334,7 @@
     <t>A relationship type SHOULD be provided.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="has-member"/&gt;</t>
+    <t>has-member</t>
   </si>
   <si>
     <t>Codes specifying how two observations are related.</t>
@@ -1150,7 +1349,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1206,23 +1405,14 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+    <t>Quantity
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.   For boolean values use valueCodeableConcept and select codes from &lt;http://hl7.org/fhir/ValueSet/v2-0136&gt; (These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed").  The element, Observation.value[x], has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueRatio, valueChoice, valuePeriod, valueSampleData, or valueString (The name format is "'value' + the type name" with a capital on the first letter of the type).</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it may not if it is in error, or it represents a group of observations.</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1314,67 +1504,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1410,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AL87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1420,7 +1610,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.0625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1429,7 +1619,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="190.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1442,8 +1632,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.8203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1904,23 +2094,21 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1983,7 +2171,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -1991,18 +2179,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2049,28 +2237,26 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
@@ -2087,7 +2273,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2095,11 +2281,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2118,17 +2306,13 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>42</v>
@@ -2176,13 +2360,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2191,7 +2379,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2199,18 +2387,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2219,19 +2407,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2295,7 +2483,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2303,18 +2491,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2323,19 +2511,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2373,14 +2561,16 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2397,7 +2587,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2405,11 +2595,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2418,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2427,16 +2615,20 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2484,15 +2676,11 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>89</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2511,11 +2699,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2528,19 +2716,19 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>94</v>
@@ -2569,13 +2757,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2607,7 +2795,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2615,7 +2803,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2635,21 +2823,21 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2673,10 +2861,10 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>42</v>
@@ -2708,18 +2896,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2727,7 +2915,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -2742,18 +2930,18 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2777,13 +2965,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2812,18 +3000,18 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2846,16 +3034,16 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2881,13 +3069,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2919,23 +3107,23 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
@@ -2947,21 +3135,21 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="M15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2985,13 +3173,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -3014,35 +3202,35 @@
       </c>
       <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3054,15 +3242,17 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3125,7 +3315,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3133,11 +3323,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3156,16 +3346,16 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3203,16 +3393,14 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
@@ -3229,7 +3417,7 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3237,15 +3425,17 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -3257,23 +3447,17 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3309,20 +3493,26 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE18" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3330,10 +3520,10 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3341,20 +3531,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3363,16 +3553,14 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3422,11 +3610,15 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3445,9 +3637,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3456,7 +3650,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3468,11 +3662,9 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
         <v>141</v>
       </c>
@@ -3524,11 +3716,15 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3539,7 +3735,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3547,11 +3743,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3570,17 +3768,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>94</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3628,11 +3822,15 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3643,7 +3841,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3651,49 +3849,47 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>42</v>
@@ -3723,16 +3919,14 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
@@ -3746,20 +3940,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3768,29 +3964,25 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3838,11 +4030,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3850,10 +4046,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3861,7 +4057,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3881,27 +4077,25 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>42</v>
@@ -3942,11 +4136,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3954,10 +4152,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3965,18 +4163,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -3985,21 +4183,21 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4046,11 +4244,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4058,10 +4260,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4069,7 +4271,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4077,7 +4279,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4089,29 +4291,27 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4152,11 +4352,15 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG26" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4164,10 +4368,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4175,7 +4379,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4183,7 +4387,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4195,23 +4399,19 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4258,11 +4458,15 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4270,10 +4474,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4281,7 +4485,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4289,10 +4493,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4301,22 +4505,20 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4364,15 +4566,11 @@
       <c r="AD28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE28" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG28" s="2"/>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4380,18 +4578,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4399,7 +4597,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4408,23 +4606,23 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4449,13 +4647,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4484,18 +4682,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4509,29 +4707,27 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4555,13 +4751,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4590,18 +4786,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4609,7 +4805,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4624,18 +4820,18 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4659,13 +4855,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4694,18 +4890,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4716,7 +4912,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4725,21 +4921,19 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4798,49 +4992,51 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4865,11 +5061,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4886,15 +5084,11 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4905,7 +5099,7 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4913,7 +5107,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4921,10 +5115,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4933,22 +5127,22 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4973,47 +5167,43 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5021,15 +5211,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C35" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5041,21 +5233,19 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5079,13 +5269,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5114,10 +5304,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5125,7 +5315,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5148,18 +5338,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5218,10 +5406,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5229,18 +5417,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5252,20 +5440,18 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5289,11 +5475,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5310,15 +5498,11 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5326,10 +5510,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5337,7 +5521,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5357,29 +5541,29 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>42</v>
@@ -5397,11 +5581,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5430,10 +5616,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5441,7 +5627,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5452,7 +5638,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5461,19 +5647,19 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5522,15 +5708,11 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5538,10 +5720,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5549,7 +5731,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5560,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5569,27 +5751,27 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>42</v>
@@ -5630,15 +5812,11 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5646,10 +5824,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5657,7 +5835,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5668,7 +5846,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5677,22 +5855,20 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5740,26 +5916,22 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5767,7 +5939,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5787,19 +5959,23 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5858,10 +6034,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5869,18 +6045,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5889,21 +6065,23 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5962,10 +6140,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5973,41 +6151,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6054,11 +6234,15 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6066,18 +6250,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6100,16 +6284,18 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6162,24 +6348,24 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6193,25 +6379,29 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6264,24 +6454,24 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6301,23 +6491,21 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6341,13 +6529,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6376,18 +6564,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6398,7 +6586,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6407,20 +6595,20 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6480,18 +6668,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6499,31 +6687,35 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6547,13 +6739,11 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6570,11 +6760,15 @@
       <c r="AD49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6582,10 +6776,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6593,7 +6787,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6613,22 +6807,22 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6653,13 +6847,13 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6677,25 +6871,25 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6703,11 +6897,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6726,16 +6920,18 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6759,13 +6955,13 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6794,10 +6990,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>142</v>
+        <v>326</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6805,18 +7001,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6828,18 +7024,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6898,10 +7094,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6909,41 +7105,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -6967,13 +7165,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -6990,11 +7188,15 @@
       <c r="AD53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" s="2"/>
+      <c r="AG53" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7002,18 +7204,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>88</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7027,7 +7229,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>42</v>
@@ -7036,26 +7238,26 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>42</v>
@@ -7073,13 +7275,11 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7108,10 +7308,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>88</v>
+        <v>348</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7119,7 +7319,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7127,10 +7327,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7142,15 +7342,17 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7198,11 +7400,15 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7210,10 +7416,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7221,7 +7427,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7241,23 +7447,21 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7305,13 +7509,13 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
@@ -7320,10 +7524,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7331,7 +7535,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7342,7 +7546,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7354,16 +7558,20 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7410,22 +7618,26 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>142</v>
+        <v>372</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7433,18 +7645,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7456,17 +7668,15 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7529,7 +7739,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7537,11 +7747,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7554,22 +7764,22 @@
         <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7633,7 +7843,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7641,41 +7851,41 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>146</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7699,13 +7909,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7728,24 +7938,24 @@
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7765,23 +7975,19 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7834,16 +8040,16 @@
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7851,7 +8057,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7874,20 +8080,16 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>120</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7911,11 +8113,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -7938,16 +8142,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -7955,7 +8159,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7966,7 +8170,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -7978,19 +8182,19 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8015,13 +8219,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8050,10 +8254,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8061,7 +8265,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8084,16 +8288,18 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>140</v>
+        <v>399</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>141</v>
+        <v>400</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8155,7 +8361,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8163,18 +8369,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8186,17 +8392,15 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>92</v>
+        <v>404</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8256,10 +8460,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>142</v>
+        <v>406</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8267,41 +8471,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I66" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>365</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>101</v>
+        <v>408</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8348,11 +8554,15 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8360,10 +8570,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>42</v>
+        <v>412</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8371,7 +8581,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8394,13 +8604,13 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8456,16 +8666,16 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8473,18 +8683,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8496,15 +8706,17 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8558,16 +8770,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8575,43 +8787,41 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8635,13 +8845,13 @@
         <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>42</v>
@@ -8670,10 +8880,10 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8681,7 +8891,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8704,24 +8914,26 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>337</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>42</v>
@@ -8739,13 +8951,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8774,10 +8986,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8785,7 +8997,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8793,7 +9005,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>51</v>
@@ -8808,13 +9020,13 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>167</v>
+        <v>427</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8876,17 +9088,1685 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE74" s="2"/>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE80" s="2"/>
+      <c r="AF80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE82" s="2"/>
+      <c r="AF82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG82" s="2"/>
+      <c r="AH82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE83" s="2"/>
+      <c r="AF83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG83" s="2"/>
+      <c r="AH83" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE84" s="2"/>
+      <c r="AF84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG84" s="2"/>
+      <c r="AH84" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE85" s="2"/>
+      <c r="AF85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG85" s="2"/>
+      <c r="AH85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE86" s="2"/>
+      <c r="AF86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG86" s="2"/>
+      <c r="AH86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" s="2"/>
+      <c r="AH87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL71">
+  <autoFilter ref="A1:AL87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8896,7 +10776,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
